--- a/救急病院変換2025.xlsx
+++ b/救急病院変換2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB007C-47DB-4641-928A-02A6AB3423AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766247C8-8CF5-4B2B-878A-729AE2E604E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{789BCC2C-EF41-4E7C-BA87-A2ABADDF9460}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{789BCC2C-EF41-4E7C-BA87-A2ABADDF9460}"/>
   </bookViews>
   <sheets>
     <sheet name="救急" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1160,6 +1160,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1167,7 +1176,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,6 +1247,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3163,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECC3D15-8C32-44B6-898D-49D0B0B1DCF8}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3177,115 +3192,118 @@
     <col min="8" max="9" width="14.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="str">
+        <f>"自 "&amp;TEXT(_xlfn.MINIFS(テーブル[日付], テーブル[小児科], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" より　至 "&amp;TEXT(_xlfn.MAXIFS(テーブル[日付], テーブル[小児科], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" まで（受付時間は午前9時から12時、午後2時から午後5時まで）"</f>
+        <v>自 令和7年10月5日(日) より　至 令和7年12月28日(日) まで（受付時間は午前9時から12時、午後2時から午後5時まで）</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="8" cm="1">
-        <f t="array" ref="B2">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=B$1)</f>
+      <c r="B3" s="8" cm="1">
+        <f t="array" ref="B3">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=B$2)</f>
         <v>45985</v>
       </c>
-      <c r="C2" s="8" cm="1">
-        <f t="array" ref="C2:C3">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=C$1)</f>
+      <c r="C3" s="8" cm="1">
+        <f t="array" ref="C3:C4">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=C$2)</f>
         <v>45943</v>
       </c>
-      <c r="D2" s="8" cm="1">
-        <f t="array" ref="D2:D3">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=D$1)</f>
+      <c r="D3" s="8" cm="1">
+        <f t="array" ref="D3:D4">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=D$2)</f>
         <v>45949</v>
       </c>
-      <c r="E2" s="8" cm="1">
-        <f t="array" ref="E2">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=E$1)</f>
+      <c r="E3" s="8" cm="1">
+        <f t="array" ref="E3">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=E$2)</f>
         <v>45964</v>
       </c>
-      <c r="F2" s="9" cm="1">
-        <f t="array" ref="F2:G4">_xlfn.WRAPROWS(_xlfn.TOCOL(_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=F$1), 1),2)</f>
+      <c r="F3" s="9" cm="1">
+        <f t="array" ref="F3:G5">_xlfn.WRAPROWS(_xlfn.TOCOL(_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=F$2), 1),2)</f>
         <v>45942</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G3" s="10">
         <v>45956</v>
       </c>
-      <c r="H2" s="8" cm="1">
-        <f t="array" ref="H2:H4">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=H$1)</f>
+      <c r="H3" s="8" cm="1">
+        <f t="array" ref="H3:H5">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=H$2)</f>
         <v>45935</v>
       </c>
-      <c r="I2" s="8" cm="1">
-        <f t="array" ref="I2">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=I$1)</f>
+      <c r="I3" s="8" cm="1">
+        <f t="array" ref="I3">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=I$2)</f>
         <v>45977</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8">
-        <v>45991</v>
-      </c>
-      <c r="D3" s="8">
-        <v>46012</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9">
-        <v>45970</v>
-      </c>
-      <c r="G3" s="10">
-        <v>45984</v>
-      </c>
-      <c r="H3" s="8">
-        <v>45963</v>
-      </c>
-      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8">
+        <v>45991</v>
+      </c>
+      <c r="D4" s="8">
+        <v>46012</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9">
-        <v>46005</v>
+        <v>45970</v>
       </c>
       <c r="G4" s="10">
-        <v>46019</v>
+        <v>45984</v>
       </c>
       <c r="H4" s="8">
-        <v>45998</v>
+        <v>45963</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
+        <v>46005</v>
+      </c>
+      <c r="G5" s="10">
+        <v>46019</v>
+      </c>
+      <c r="H5" s="8">
+        <v>45998</v>
+      </c>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20"/>
@@ -3364,103 +3382,113 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>8</v>
-      </c>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="7" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="F13:G13"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="1.1811023622047245" bottom="0.78740157480314965" header="0.59055118110236227" footer="0.39370078740157483"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準"&amp;14日曜・祝日急患診療当番割当表
-&amp;11
-（受付時間は午前9時から12時、午後2時から午後5時まで）</oddHeader>
+    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準"&amp;14日曜・祝日急患診療当番割当表</oddHeader>
     <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"１．当日お差支えの方は各自に於てかわりをお頼みください。
 ２．当番の方は原則として、往診しないこと。已むを得ず往診を必要とする場合は、他院又は診療所に連絡しておくこと。</oddFooter>
   </headerFooter>
@@ -3469,7 +3497,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{AF74544A-E47D-4F5C-91EB-D0B643610742}">
-            <xm:f>COUNTIF(祝日!$A:$A,B2)&gt;0</xm:f>
+            <xm:f>COUNTIF(祝日!$A:$A,B3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3478,7 +3506,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2:I12</xm:sqref>
+          <xm:sqref>B3:I13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3488,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A89D867-4042-4174-9FB9-DF087335E574}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3500,165 +3528,168 @@
     <col min="2" max="8" width="15.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="str">
+        <f>"自 "&amp;TEXT(_xlfn.MINIFS(テーブル[日付], テーブル[島しょ部], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" より　至 "&amp;TEXT(_xlfn.MAXIFS(テーブル[日付], テーブル[島しょ部], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" まで（受付時間は午前9時から午後5時まで）"</f>
+        <v>自 令和7年10月5日(日) より　至 令和8年3月29日(日) まで（受付時間は午前9時から午後5時まで）</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="8" cm="1">
-        <f t="array" ref="B2:B6">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=B$1)</f>
+      <c r="B3" s="8" cm="1">
+        <f t="array" ref="B3:B7">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=B$2)</f>
         <v>45956</v>
       </c>
-      <c r="C2" s="8" cm="1">
-        <f t="array" ref="C2:C6">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=C$1)</f>
+      <c r="C3" s="8" cm="1">
+        <f t="array" ref="C3:C7">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=C$2)</f>
         <v>45963</v>
       </c>
-      <c r="D2" s="8" cm="1">
-        <f t="array" ref="D2:D5">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=D$1)</f>
+      <c r="D3" s="8" cm="1">
+        <f t="array" ref="D3:D6">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=D$2)</f>
         <v>45991</v>
       </c>
-      <c r="E2" s="8" cm="1">
-        <f t="array" ref="E2:E6">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=E$1)</f>
+      <c r="E3" s="8" cm="1">
+        <f t="array" ref="E3:E7">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=E$2)</f>
         <v>45935</v>
       </c>
-      <c r="F2" s="8" cm="1">
-        <f t="array" ref="F2:F6">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=F$1)</f>
+      <c r="F3" s="8" cm="1">
+        <f t="array" ref="F3:F7">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=F$2)</f>
         <v>45942</v>
       </c>
-      <c r="G2" s="8" cm="1">
-        <f t="array" ref="G2:G6">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=G$1)</f>
+      <c r="G3" s="8" cm="1">
+        <f t="array" ref="G3:G7">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=G$2)</f>
         <v>45949</v>
       </c>
-      <c r="H2" s="8" cm="1">
-        <f t="array" ref="H2:H6">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=H$1)</f>
+      <c r="H3" s="8" cm="1">
+        <f t="array" ref="H3:H7">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=H$2)</f>
         <v>45943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="8">
-        <v>45964</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45998</v>
-      </c>
-      <c r="D3" s="8">
-        <v>46005</v>
-      </c>
-      <c r="E3" s="8">
-        <v>45970</v>
-      </c>
-      <c r="F3" s="8">
-        <v>45977</v>
-      </c>
-      <c r="G3" s="8">
-        <v>45984</v>
-      </c>
-      <c r="H3" s="8">
-        <v>45985</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="8">
-        <v>46033</v>
+        <v>45964</v>
       </c>
       <c r="C4" s="8">
-        <v>46034</v>
+        <v>45998</v>
       </c>
       <c r="D4" s="8">
-        <v>46040</v>
+        <v>46005</v>
       </c>
       <c r="E4" s="8">
-        <v>46012</v>
+        <v>45970</v>
       </c>
       <c r="F4" s="8">
-        <v>46019</v>
+        <v>45977</v>
       </c>
       <c r="G4" s="8">
-        <v>46023</v>
+        <v>45984</v>
       </c>
       <c r="H4" s="8">
-        <v>46026</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
       <c r="B5" s="8">
-        <v>46068</v>
+        <v>46033</v>
       </c>
       <c r="C5" s="8">
-        <v>46075</v>
+        <v>46034</v>
       </c>
       <c r="D5" s="8">
-        <v>46076</v>
+        <v>46040</v>
       </c>
       <c r="E5" s="8">
-        <v>46047</v>
+        <v>46012</v>
       </c>
       <c r="F5" s="8">
-        <v>46054</v>
+        <v>46019</v>
       </c>
       <c r="G5" s="8">
-        <v>46061</v>
+        <v>46023</v>
       </c>
       <c r="H5" s="8">
-        <v>46064</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20"/>
       <c r="B6" s="8">
-        <v>46103</v>
+        <v>46068</v>
       </c>
       <c r="C6" s="8">
-        <v>46110</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>46075</v>
+      </c>
+      <c r="D6" s="8">
+        <v>46076</v>
+      </c>
       <c r="E6" s="8">
-        <v>46082</v>
+        <v>46047</v>
       </c>
       <c r="F6" s="8">
-        <v>46089</v>
+        <v>46054</v>
       </c>
       <c r="G6" s="8">
-        <v>46096</v>
+        <v>46061</v>
       </c>
       <c r="H6" s="8">
-        <v>46101</v>
+        <v>46064</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8">
+        <v>46103</v>
+      </c>
+      <c r="C7" s="8">
+        <v>46110</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="8">
+        <v>46082</v>
+      </c>
+      <c r="F7" s="8">
+        <v>46089</v>
+      </c>
+      <c r="G7" s="8">
+        <v>46096</v>
+      </c>
+      <c r="H7" s="8">
+        <v>46101</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
@@ -3710,97 +3741,106 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>105</v>
-      </c>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A12"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="1.1811023622047245" bottom="0.78740157480314965" header="0.59055118110236227" footer="0.39370078740157483"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準"&amp;14日曜日・祝日当番医日程表（島しょ部）
-&amp;11
-（受付時間は午前9時から午後5時まで）</oddHeader>
+    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準"&amp;14日曜日・祝日当番医日程表（島しょ部）</oddHeader>
     <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"当番医の変更があればお知らせ下さい</oddFooter>
   </headerFooter>
   <extLst>
@@ -3808,7 +3848,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{BE587696-A2D6-4D8B-B03A-79AE22B181FA}">
-            <xm:f>COUNTIF(祝日!$A:$A,B2)&gt;0</xm:f>
+            <xm:f>COUNTIF(祝日!$A:$A,B3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3817,7 +3857,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2:H12</xm:sqref>
+          <xm:sqref>B3:H13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12783,7 +12823,7 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/救急病院変換2025.xlsx
+++ b/救急病院変換2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\kumiawase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766247C8-8CF5-4B2B-878A-729AE2E604E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC03B442-3D29-439C-B3E7-3D1C6D19CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{789BCC2C-EF41-4E7C-BA87-A2ABADDF9460}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{789BCC2C-EF41-4E7C-BA87-A2ABADDF9460}"/>
   </bookViews>
   <sheets>
     <sheet name="救急" sheetId="1" r:id="rId1"/>
@@ -412,17 +412,17 @@
 def marker2type(row):
     match (row["marker"], row["name"]):
         case ("○", _):
-            return 0, "指定なし", "08:30～翌08:30"
+            return 0, "指定なし", "08:30〜翌08:30"
         case ("◎", "医師会市民病院"):
-            return 20, "指定なし", "17:30～翌08:30"
+            return 20, "指定なし", "17:30〜翌08:30"
         case ("◎", _):
-            return 10, "指定なし", "08:30～17:30"
+            return 10, "指定なし", "08:30〜17:30"
         case ("※", "三木病院"):
-            return 15, "整形外科", "08:30～17:30"
+            return 15, "整形外科", "08:30〜17:30"
         case ("●", "県立今治病院"):
-            return 30, "指定なし", "08:30～17:15 / 22:30～翌08:30"
+            return 30, "指定なし", "08:30〜17:15 / 22:30〜翌08:30"
         case ("●", "今治セントラルクリニック"):
-            return 31, "指定なし", "17:15～22:30"
+            return 31, "指定なし", "17:15〜22:30"
         case _:
             return 99, "－", "－"
 df1[["type", "medical", "time"]] = df1.apply(marker2type, axis=1, result_type="expand")
@@ -435,16 +435,16 @@
 df2 = df3[df3["name"] == "医師会市民病院"].copy()
 df2["type"] = 70
 df2["medical"] = "内科"
-df2["time"] = "09:00～17:30"
+df2["time"] = "09:00〜17:30"
 # 小児科
 df3["type"] = 80
 df3["medical"] = "小児科"
-df3["time"] = "09:00～12:00 / 14:00～17:00"
+df3["time"] = "09:00〜12:00 / 14:00〜17:00"
 # 島しょ部
 df4 =df0[["date", "島しょ部"]].rename(columns={"島しょ部": "name"}).dropna().copy()
 df4["type"] = 90
 df4["medical"] = "指定なし"
-df4["time"] = "09:00～17:00"
+df4["time"] = "09:00〜17:00"
 # 結合
 df = (
     pd.concat([df1, df2, df3, df4], ignore_index=True)
@@ -616,10 +616,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>08:00～翌08:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>医師会市民病院</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -636,35 +632,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>08:30～17:15 / 22:30～翌08:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:15～22:30</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:00～17:30</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:30～翌08:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>△</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:00～12:30</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12:30～17:30</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1045,6 +1017,27 @@
   <si>
     <t>島しょ部</t>
   </si>
+  <si>
+    <t>08:00〜翌08:00</t>
+  </si>
+  <si>
+    <t>08:00〜17:30</t>
+  </si>
+  <si>
+    <t>08:00〜12:30</t>
+  </si>
+  <si>
+    <t>12:30〜17:30</t>
+  </si>
+  <si>
+    <t>17:30〜翌08:00</t>
+  </si>
+  <si>
+    <t>08:30〜17:15 / 22:30〜翌08:00</t>
+  </si>
+  <si>
+    <t>17:15〜22:30</t>
+  </si>
 </sst>
 </file>
 
@@ -1248,10 +1241,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1962,7 +1955,7 @@
   </sheetPr>
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2364,13 +2357,13 @@
         <v>49</v>
       </c>
       <c r="AJ3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AK3" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="AL3" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -2843,7 +2836,7 @@
     </row>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2867,7 +2860,7 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -3114,7 +3107,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>42</v>
@@ -3125,7 +3118,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>44</v>
@@ -3133,13 +3126,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3193,32 +3186,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>"自 "&amp;TEXT(_xlfn.MINIFS(テーブル[日付], テーブル[小児科], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" より　至 "&amp;TEXT(_xlfn.MAXIFS(テーブル[日付], テーブル[小児科], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" まで（受付時間は午前9時から12時、午後2時から午後5時まで）"</f>
         <v>自 令和7年10月5日(日) より　至 令和7年12月28日(日) まで（受付時間は午前9時から12時、午後2時から午後5時まで）</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
@@ -3233,7 +3226,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" ref="B3">_xlfn._xlws.FILTER(テーブル[日付],テーブル[小児科]=B$2)</f>
@@ -3395,19 +3388,19 @@
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>13</v>
@@ -3422,56 +3415,56 @@
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A89D867-4042-4174-9FB9-DF087335E574}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3529,44 +3522,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="str">
+      <c r="A1" s="24" t="str">
         <f>"自 "&amp;TEXT(_xlfn.MINIFS(テーブル[日付], テーブル[島しょ部], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" より　至 "&amp;TEXT(_xlfn.MAXIFS(テーブル[日付], テーブル[島しょ部], "&lt;&gt;"),"ggge年m月d日（aaa）")&amp;" まで（受付時間は午前9時から午後5時まで）"</f>
         <v>自 令和7年10月5日(日) より　至 令和8年3月29日(日) まで（受付時間は午前9時から午後5時まで）</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" ref="B3:B7">_xlfn._xlws.FILTER(テーブル[日付],テーブル[島しょ部]=B$2)</f>
@@ -3753,80 +3746,80 @@
     </row>
     <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3884,13 +3877,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -3901,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -3912,7 +3905,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -3920,10 +3913,10 @@
         <v>45943</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -3931,10 +3924,10 @@
         <v>45949</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -3945,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -3956,7 +3949,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -3964,10 +3957,10 @@
         <v>45964</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -3978,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -3989,7 +3982,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4000,7 +3993,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -4008,10 +4001,10 @@
         <v>45985</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -4019,10 +4012,10 @@
         <v>45991</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -4033,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -4044,7 +4037,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -4052,10 +4045,10 @@
         <v>46012</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -4066,7 +4059,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -4075,7 +4068,7 @@
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -4084,7 +4077,7 @@
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -4093,7 +4086,7 @@
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -4102,7 +4095,7 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -4111,7 +4104,7 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -4120,7 +4113,7 @@
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -4129,7 +4122,7 @@
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -4138,7 +4131,7 @@
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -4147,7 +4140,7 @@
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -4156,7 +4149,7 @@
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -4165,7 +4158,7 @@
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -4174,7 +4167,7 @@
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -4183,7 +4176,7 @@
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -4192,7 +4185,7 @@
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -4201,7 +4194,7 @@
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -4210,7 +4203,7 @@
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -4219,7 +4212,7 @@
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -4228,7 +4221,7 @@
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -12675,7 +12668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE4EEB8-C054-4E81-92AD-92EAE2CB17EA}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -12706,10 +12701,10 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -12717,13 +12712,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -12731,13 +12726,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -12745,13 +12740,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -12759,13 +12754,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -12773,13 +12768,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -12787,13 +12782,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -12801,13 +12796,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -12823,9 +12818,7 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -12860,7 +12853,7 @@
         <v>瀬戸内海病院</v>
       </c>
       <c r="D2" t="str">
-        <v>08:30～17:30</v>
+        <v>08:30〜17:30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -12874,7 +12867,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D3" t="str">
-        <v>17:30～翌08:30</v>
+        <v>17:30〜翌08:30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -12888,7 +12881,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D4" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -12902,7 +12895,7 @@
         <v>県立今治病院</v>
       </c>
       <c r="D5" t="str">
-        <v>09:00～12:00 / 14:00～17:00</v>
+        <v>09:00〜12:00 / 14:00〜17:00</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -12916,7 +12909,7 @@
         <v>有津むらかみクリニック</v>
       </c>
       <c r="D6" t="str">
-        <v>09:00～17:00</v>
+        <v>09:00〜17:00</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -12930,7 +12923,7 @@
         <v>今治第一病院</v>
       </c>
       <c r="D7" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -12944,7 +12937,7 @@
         <v>丹こどもクリニック</v>
       </c>
       <c r="D8" t="str">
-        <v>09:00～12:00 / 14:00～17:00</v>
+        <v>09:00〜12:00 / 14:00〜17:00</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -12958,7 +12951,7 @@
         <v>喜多嶋診療所</v>
       </c>
       <c r="D9" t="str">
-        <v>09:00～17:00</v>
+        <v>09:00〜17:00</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -12972,7 +12965,7 @@
         <v>済生会今治病院</v>
       </c>
       <c r="D10" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -12986,7 +12979,7 @@
         <v>木原病院</v>
       </c>
       <c r="D11" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -13000,7 +12993,7 @@
         <v>県立今治病院</v>
       </c>
       <c r="D12" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -13014,7 +13007,7 @@
         <v>今治第一病院</v>
       </c>
       <c r="D13" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -13028,7 +13021,7 @@
         <v>木原病院</v>
       </c>
       <c r="D14" t="str">
-        <v>08:30～17:30</v>
+        <v>08:30〜17:30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -13042,7 +13035,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D15" t="str">
-        <v>17:30～翌08:30</v>
+        <v>17:30〜翌08:30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -13056,7 +13049,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D16" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -13070,7 +13063,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D17" t="str">
-        <v>09:00～17:30</v>
+        <v>09:00〜17:30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -13084,7 +13077,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D18" t="str">
-        <v>09:00～12:00 / 14:00～17:00</v>
+        <v>09:00〜12:00 / 14:00〜17:00</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -13098,7 +13091,7 @@
         <v>斎藤クリニック</v>
       </c>
       <c r="D19" t="str">
-        <v>09:00～17:00</v>
+        <v>09:00〜17:00</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -13112,7 +13105,7 @@
         <v>広瀬病院</v>
       </c>
       <c r="D20" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -13126,7 +13119,7 @@
         <v>瀬戸内海病院</v>
       </c>
       <c r="D21" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -13140,7 +13133,7 @@
         <v>木原病院</v>
       </c>
       <c r="D22" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -13154,7 +13147,7 @@
         <v>済生会今治病院</v>
       </c>
       <c r="D23" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -13168,7 +13161,7 @@
         <v>県立今治病院</v>
       </c>
       <c r="D24" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -13182,7 +13175,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D25" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -13196,7 +13189,7 @@
         <v>瀬戸内海病院</v>
       </c>
       <c r="D26" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -13210,7 +13203,7 @@
         <v>済生会今治病院</v>
       </c>
       <c r="D27" t="str">
-        <v>09:00～12:00 / 14:00～17:00</v>
+        <v>09:00〜12:00 / 14:00〜17:00</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -13224,7 +13217,7 @@
         <v>片山医院</v>
       </c>
       <c r="D28" t="str">
-        <v>09:00～17:00</v>
+        <v>09:00〜17:00</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -13238,7 +13231,7 @@
         <v>広瀬病院</v>
       </c>
       <c r="D29" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -13252,7 +13245,7 @@
         <v>今治第一病院</v>
       </c>
       <c r="D30" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -13266,7 +13259,7 @@
         <v>済生会今治病院</v>
       </c>
       <c r="D31" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -13280,7 +13273,7 @@
         <v>県立今治病院</v>
       </c>
       <c r="D32" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -13294,7 +13287,7 @@
         <v>木原病院</v>
       </c>
       <c r="D33" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -13308,7 +13301,7 @@
         <v>放射線第一病院</v>
       </c>
       <c r="D34" t="str">
-        <v>08:30～17:30</v>
+        <v>08:30〜17:30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -13322,7 +13315,7 @@
         <v>三木病院</v>
       </c>
       <c r="D35" t="str">
-        <v>08:30～17:30</v>
+        <v>08:30〜17:30</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -13336,7 +13329,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D36" t="str">
-        <v>17:30～翌08:30</v>
+        <v>17:30〜翌08:30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -13350,7 +13343,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D37" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -13364,7 +13357,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D38" t="str">
-        <v>09:00～17:30</v>
+        <v>09:00〜17:30</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -13378,7 +13371,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D39" t="str">
-        <v>09:00～12:00 / 14:00～17:00</v>
+        <v>09:00〜12:00 / 14:00〜17:00</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -13392,7 +13385,7 @@
         <v>はかた外科胃腸科</v>
       </c>
       <c r="D40" t="str">
-        <v>09:00～17:00</v>
+        <v>09:00〜17:00</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -13406,7 +13399,7 @@
         <v>瀬戸内海病院</v>
       </c>
       <c r="D41" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -13420,7 +13413,7 @@
         <v>みぶ小児科</v>
       </c>
       <c r="D42" t="str">
-        <v>09:00～12:00 / 14:00～17:00</v>
+        <v>09:00〜12:00 / 14:00〜17:00</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -13434,7 +13427,7 @@
         <v>しのざき整形外科</v>
       </c>
       <c r="D43" t="str">
-        <v>09:00～17:00</v>
+        <v>09:00〜17:00</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -13448,7 +13441,7 @@
         <v>今治第一病院</v>
       </c>
       <c r="D44" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -13462,7 +13455,7 @@
         <v>県立今治病院</v>
       </c>
       <c r="D45" t="str">
-        <v>08:30～17:15 / 22:30～翌08:30</v>
+        <v>08:30〜17:15 / 22:30〜翌08:30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -13476,7 +13469,7 @@
         <v>今治セントラルクリニック</v>
       </c>
       <c r="D46" t="str">
-        <v>17:15～22:30</v>
+        <v>17:15〜22:30</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -13490,7 +13483,7 @@
         <v>済生会今治病院</v>
       </c>
       <c r="D47" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -13504,7 +13497,7 @@
         <v>木原病院</v>
       </c>
       <c r="D48" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -13518,7 +13511,7 @@
         <v>今治第一病院</v>
       </c>
       <c r="D49" t="str">
-        <v>08:30～17:30</v>
+        <v>08:30〜17:30</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -13532,7 +13525,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D50" t="str">
-        <v>17:30～翌08:30</v>
+        <v>17:30〜翌08:30</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -13546,7 +13539,7 @@
         <v>医師会市民病院</v>
       </c>
       <c r="D51" t="str">
-        <v>08:30～翌08:30</v>
+        <v>08:30〜翌08:30</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -13560,7 +13553,7 @@
         <v>まつうらバンビクリニック</v>
       </c>
       <c r="D52" t="str">
-        <v>09:00～12:00 / 14:00～17:00</v>
+        <v>09:00〜12:00 / 14:00〜17:00</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -13574,7 +13567,7 @@
         <v>大三島中央病院</v>
       </c>
       <c r="D53" t="str">
-        <v>09:00～17:00</v>
+        <v>09:00〜17:00</v>
       </c>
     </row>
   </sheetData>
